--- a/final-project.xlsx
+++ b/final-project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassili\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F156D8-0B43-4EBE-A363-ADBFA9B4DB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F6365-89FF-46AF-983B-B662657E434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{287BD832-9C3D-4D34-8933-E690657272D2}"/>
   </bookViews>
@@ -28,23 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Ivy League Applicants</t>
   </si>
@@ -153,6 +142,30 @@
   <si>
     <t>Speed (m/s)</t>
   </si>
+  <si>
+    <t>NOM:</t>
+  </si>
+  <si>
+    <t>PRENOM:</t>
+  </si>
+  <si>
+    <t>GROUPE:</t>
+  </si>
+  <si>
+    <t>SECTION:</t>
+  </si>
+  <si>
+    <t>MATRECULE:</t>
+  </si>
+  <si>
+    <t>KRIBA</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$DZD]"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,28 +205,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -391,11 +435,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -410,27 +469,55 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,9 +540,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -465,7 +617,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -482,7 +634,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -499,7 +651,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -516,7 +668,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -532,7 +684,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -548,7 +700,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -565,7 +717,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -581,7 +733,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -597,13 +749,31 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="13"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -743,360 +913,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.9358705161854772E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.62271617089530473"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AC19-4E5E-B5C9-3620CB2EEFD5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil14!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil14!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2222222222222214</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref> </c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC19-4E5E-B5C9-3620CB2EEFD5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="96375024"/>
-        <c:axId val="96375384"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="96375024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96375384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="96375384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96375024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1118,7 +934,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speed (m/s)</a:t>
+              <a:t>speed/distance</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1154,33 +970,15 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.88386351706036748"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Feuil14!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speed (m/s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Distance (m)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1189,30 +987,10 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="0"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1292,10 +1070,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E2B-4B71-882C-B09A1E2779FF}"/>
+              <c16:uniqueId val="{00000000-E0BF-43A7-90C9-D00342DE4EF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,15 +1085,392 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408273728"/>
-        <c:axId val="408273368"/>
+        <c:axId val="556557304"/>
+        <c:axId val="556556584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408273728"/>
+        <c:axId val="556557304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="91"/>
-          <c:min val="0"/>
+          <c:max val="92"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556556584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556556584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556557304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed/Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed (m/s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil14!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil14!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D84-40DE-970F-F595AB7ADADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="583358176"/>
+        <c:axId val="583357816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="583358176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1356,13 +1511,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408273368"/>
+        <c:crossAx val="583357816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408273368"/>
+        <c:axId val="583357816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1574,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408273728"/>
+        <c:crossAx val="583358176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2615,23 +2770,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>103451</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7004</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>480219</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68526</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221151</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60122</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263D49C5-9144-5D1B-8921-DFABFCC981EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F156FE-26FE-90C3-8B41-AFAAC757D33F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,23 +2806,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>553010</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>144835</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>553011</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>24932</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13564</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 6">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25201C1-20D5-3848-DADD-02673950410C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F07C378-4A9C-CB8C-AB68-3C014E7FFE8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,6 +3237,21 @@
     <dataField name="Somme de Students" fld="0" baseField="0" baseItem="0"/>
     <dataField name="Moyenne de Students2" fld="0" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="19">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3161,6 +3331,34 @@
     <dataField name="Somme de Students" fld="0" baseField="0" baseItem="0"/>
     <dataField name="Moyenne de Students2" fld="0" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
+  <formats count="4">
+    <format dxfId="17">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3273,34 +3471,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FD7AB14F-DE2C-42F7-ACE0-62E2DEEBC3A4}" name="Tableau6" displayName="Tableau6" ref="A3:C43" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A3:C43" xr:uid="{FD7AB14F-DE2C-42F7-ACE0-62E2DEEBC3A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FD7AB14F-DE2C-42F7-ACE0-62E2DEEBC3A4}" name="Tableau6" displayName="Tableau6" ref="A3:C43" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A3:C43" xr:uid="{FD7AB14F-DE2C-42F7-ACE0-62E2DEEBC3A4}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ADD30FD9-7526-4B16-B5BF-1999BF96A159}" name="Students" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{64CFA14E-4AA3-42C9-B780-EDE77ECD9197}" name="Faculty" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{97958515-13D8-489E-8DBE-6F8B35D0BD84}" name="University" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{ADD30FD9-7526-4B16-B5BF-1999BF96A159}" name="Students" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{64CFA14E-4AA3-42C9-B780-EDE77ECD9197}" name="Faculty" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{97958515-13D8-489E-8DBE-6F8B35D0BD84}" name="University" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAD8050E-12D5-4EE2-B64F-8EE0AE35EBAB}" name="Tableau2" displayName="Tableau2" ref="B2:H16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B2:H16" xr:uid="{FAD8050E-12D5-4EE2-B64F-8EE0AE35EBAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAD8050E-12D5-4EE2-B64F-8EE0AE35EBAB}" name="Tableau2" displayName="Tableau2" ref="B2:H16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B2:H16" xr:uid="{FAD8050E-12D5-4EE2-B64F-8EE0AE35EBAB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DD4D8775-70BB-4407-8484-623D7A161B25}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DC88B3BB-1356-447A-87AA-B559DC1207C8}" name="PU" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7BB8F1F7-D674-44BC-86D4-13A5C103FC44}" name="QTE" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9499FE9C-83AB-49B8-ABF9-CCE16C0D9A9E}" name="PT" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{DD4D8775-70BB-4407-8484-623D7A161B25}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DC88B3BB-1356-447A-87AA-B559DC1207C8}" name="PU" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7BB8F1F7-D674-44BC-86D4-13A5C103FC44}" name="QTE" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9499FE9C-83AB-49B8-ABF9-CCE16C0D9A9E}" name="PT" dataDxfId="8">
       <calculatedColumnFormula>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{636A0BAB-D37C-4772-8F99-33B1B8221973}" name="Remise" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{636A0BAB-D37C-4772-8F99-33B1B8221973}" name="Remise" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{87D617D3-DBEA-4136-94C6-63497610410D}" name="VAL Remise" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{87D617D3-DBEA-4136-94C6-63497610410D}" name="VAL Remise" dataDxfId="6">
       <calculatedColumnFormula>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BA90C737-82C1-45D1-868D-62ECC9B5B387}" name="Total a payer" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{BA90C737-82C1-45D1-868D-62ECC9B5B387}" name="Total a payer" dataDxfId="5">
       <calculatedColumnFormula>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3309,11 +3519,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DA85812-D9CC-469E-9C41-EBFEBBE68937}" name="Tableau4" displayName="Tableau4" ref="B3:D13" totalsRowShown="0">
-  <autoFilter ref="B3:D13" xr:uid="{6DA85812-D9CC-469E-9C41-EBFEBBE68937}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DA85812-D9CC-469E-9C41-EBFEBBE68937}" name="Tableau4" displayName="Tableau4" ref="B3:D13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B3:D13" xr:uid="{6DA85812-D9CC-469E-9C41-EBFEBBE68937}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{43A1438A-C222-4ED0-8169-BEB66FA48F3B}" name="Time (s)"/>
-    <tableColumn id="2" xr3:uid="{60804302-1F1C-40E4-AFF1-C05D4D4FF988}" name="Distance (m)"/>
+    <tableColumn id="1" xr3:uid="{43A1438A-C222-4ED0-8169-BEB66FA48F3B}" name="Time (s)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{60804302-1F1C-40E4-AFF1-C05D4D4FF988}" name="Distance (m)" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{1343F401-4BCB-4001-8464-DD5EA714458C}" name="Speed (m/s)" dataDxfId="0">
       <calculatedColumnFormula>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</calculatedColumnFormula>
     </tableColumn>
@@ -3621,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CB24-7704-4792-94A7-A56E9809CB38}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,31 +3844,39 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,6 +3889,12 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3678,6 +3906,12 @@
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="30">
+        <v>23231378508</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3689,6 +3923,12 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="32">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3699,6 +3939,12 @@
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,24 +4359,24 @@
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4201,6 +4447,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4210,24 +4457,24 @@
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4340,7 +4587,7 @@
   <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,17 +4849,18 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
@@ -4623,469 +4871,469 @@
     <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
+    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="20">
         <v>120</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="19">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>360</v>
       </c>
-      <c r="F3" s="15" t="str">
+      <c r="F3" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>18</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="20">
         <v>56</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="19">
         <v>5</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>280</v>
       </c>
-      <c r="F4" s="15" t="str">
+      <c r="F4" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>14</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="20">
         <v>70</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>140</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>7</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="20">
         <v>430</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="19">
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>3010</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>301</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>2709</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="20">
         <v>230</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="19">
         <v>23</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>5290</v>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>529</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>4761</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="20">
         <v>10</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>20</v>
       </c>
-      <c r="F8" s="15" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>0%</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>20</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="20">
         <v>5</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="19">
         <v>8</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>40</v>
       </c>
-      <c r="F9" s="15" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>0%</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
         <v>8</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="20">
         <v>5040</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>5040</v>
       </c>
-      <c r="F10" s="15" t="str">
+      <c r="F10" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>504</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>4536</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>9</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="20">
         <v>1200</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="19">
         <v>3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>3600</v>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>360</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>3240</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="20">
         <v>480</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>1920</v>
       </c>
-      <c r="F12" s="15" t="str">
+      <c r="F12" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>192</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>1728</v>
       </c>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>11</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="20">
         <v>33</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="19">
         <v>5</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>165</v>
       </c>
-      <c r="F13" s="15" t="str">
+      <c r="F13" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>8.25</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>156.75</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>12</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="20">
         <v>1200</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>2400</v>
       </c>
-      <c r="F14" s="15" t="str">
+      <c r="F14" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>240</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>2160</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+    <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>13</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="20">
         <v>15</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="19">
         <v>10</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>150</v>
       </c>
-      <c r="F15" s="15" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>7.5</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>142.5</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
         <v>14</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="20">
         <v>24</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="19">
         <v>5</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="20">
         <f>Tableau2[[#This Row],[QTE]]*Tableau2[[#This Row],[PU]]</f>
         <v>120</v>
       </c>
-      <c r="F16" s="15" t="str">
+      <c r="F16" s="21" t="str">
         <f>IF(AND(Tableau2[[#This Row],[PT]]&gt;=100,Tableau2[[#This Row],[PT]]&lt;=999),"5%",IF(Tableau2[[#This Row],[PT]]&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="20">
         <f>(Tableau2[[#This Row],[Remise]]*Tableau2[[#This Row],[PT]])</f>
         <v>6</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="20">
         <f>Tableau2[[#This Row],[PT]]-Tableau2[[#This Row],[VAL Remise]]</f>
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="20" t="s">
+    <row r="17" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="17">
+      <c r="G18" s="25"/>
+      <c r="H18" s="26">
         <f>SUM(H3:H17)</f>
         <v>20348.25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="20" t="s">
+    <row r="19" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18">
+      <c r="G19" s="25"/>
+      <c r="H19" s="27">
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="20" t="s">
+    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17">
+      <c r="G20" s="25"/>
+      <c r="H20" s="26">
         <f>H19*H18</f>
         <v>3866.1675</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="20" t="s">
+    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="16">
+      <c r="G21" s="25"/>
+      <c r="H21" s="28">
         <f>H20+H18</f>
         <v>24214.4175</v>
       </c>
@@ -5102,144 +5350,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFE434B-F21D-4272-80B0-9004D868EC48}">
   <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>37</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>7.4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <v>49</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="18">
         <v>63</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="18">
         <v>75</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>9.375</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="18">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>9.2222222222222214</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="18">
         <v>91</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="18">
         <f>Tableau4[[#This Row],[Distance (m)]]/Tableau4[[#This Row],[Time (s)]]</f>
         <v>9.1</v>
       </c>
